--- a/medicine/Psychotrope/Bière_à_étiquette/Bière_à_étiquette.xlsx
+++ b/medicine/Psychotrope/Bière_à_étiquette/Bière_à_étiquette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bi%C3%A8re_%C3%A0_%C3%A9tiquette</t>
+          <t>Bière_à_étiquette</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une bière à étiquette est une bière classique d'une brasserie de production qui est commercialisée sous une étiquette différente représentant une autre marque de bière, un événement, des festivités publiques ou privées ou une commande d'un particulier effectuée auprès de la brasserie productrice. La bière originale s'appelle la bière mère.
 Une bouteille de bière à étiquette contient donc exactement le même produit qu'une bouteille de bière mère. Seule l'étiquette change. Cette pratique est très courante en Belgique particulièrement pour des marques vendues dans certains supermarchés.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bi%C3%A8re_%C3%A0_%C3%A9tiquette</t>
+          <t>Bière_à_étiquette</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Exemple de bières à étiquette</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La bière d'abbaye Bornem Tripel est la bière mère des bières à étiquette suivantes : Maerlant Damse Tripel, Abdij van Roosenberg Tripel et Keizersberg.
  Portail de la bière                     </t>
